--- a/xlsx/country_comparison/solidarity_support_extended_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_extended_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -69,19 +72,19 @@
 India, Brazil, African Union), restrict veto use</t>
   </si>
   <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
@@ -461,13 +464,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.797989561183066</v>
+        <v>0.797728501892915</v>
       </c>
       <c r="C2" t="n">
         <v>0.826012058570198</v>
@@ -497,18 +503,21 @@
         <v>0.772249782420811</v>
       </c>
       <c r="L2" t="n">
+        <v>0.793823059348919</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.808205588588327</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.758773015319902</v>
+      <c r="N2" t="n">
+        <v>0.758763085765361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.771518987341772</v>
+        <v>0.774794198353587</v>
       </c>
       <c r="C3" t="n">
         <v>0.795595978937291</v>
@@ -538,18 +547,21 @@
         <v>0.732817501320784</v>
       </c>
       <c r="L3" t="n">
+        <v>0.817116950550607</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.852437001452164</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.72282849217656</v>
+      <c r="N3" t="n">
+        <v>0.723005171748347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.727012668573764</v>
+        <v>0.735490009514748</v>
       </c>
       <c r="C4" t="n">
         <v>0.736258660508083</v>
@@ -579,18 +591,21 @@
         <v>0.67903251711971</v>
       </c>
       <c r="L4" t="n">
+        <v>0.851034424656702</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.851960028038753</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.678701877335224</v>
+      <c r="N4" t="n">
+        <v>0.678845245140098</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.712538906180525</v>
+        <v>0.700619834710744</v>
       </c>
       <c r="C5" t="n">
         <v>0.748409202153696</v>
@@ -620,182 +635,197 @@
         <v>0.623577294273261</v>
       </c>
       <c r="L5" t="n">
+        <v>0.543297585547114</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.78738583872611</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.66080540709533</v>
+      <c r="N5" t="n">
+        <v>0.660738583552298</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.697645079899075</v>
+        <v>0.696536881236549</v>
       </c>
       <c r="C6" t="n">
-        <v>0.724314272431427</v>
+        <v>0.691183404054691</v>
       </c>
       <c r="D6" t="n">
-        <v>0.74804344232966</v>
+        <v>0.630233279970172</v>
       </c>
       <c r="E6" t="n">
-        <v>0.721006097532411</v>
+        <v>0.603125941881532</v>
       </c>
       <c r="F6" t="n">
-        <v>0.82158533790241</v>
+        <v>0.801138519399549</v>
       </c>
       <c r="G6" t="n">
-        <v>0.655850174362352</v>
+        <v>0.768633155276535</v>
       </c>
       <c r="H6" t="n">
-        <v>0.720464698516305</v>
+        <v>0.732948425350415</v>
       </c>
       <c r="I6" t="n">
-        <v>0.727314051621683</v>
+        <v>0.712952434354826</v>
       </c>
       <c r="J6" t="n">
-        <v>0.588476192495</v>
+        <v>0.6282335145465</v>
       </c>
       <c r="K6" t="n">
-        <v>0.66417147238743</v>
+        <v>0.649007244283415</v>
       </c>
       <c r="L6" t="n">
-        <v>0.764169437385325</v>
+        <v>0.73705279435081</v>
       </c>
       <c r="M6" t="n">
-        <v>0.648494302888377</v>
+        <v>0.851313151457241</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.64805959650704</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.693521245267144</v>
+        <v>0.69309150193601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.691183404054691</v>
+        <v>0.722995679308689</v>
       </c>
       <c r="D7" t="n">
-        <v>0.630233279970172</v>
+        <v>0.76683697471266</v>
       </c>
       <c r="E7" t="n">
-        <v>0.603125941881532</v>
+        <v>0.694591801308621</v>
       </c>
       <c r="F7" t="n">
-        <v>0.801138519399549</v>
+        <v>0.767042786406479</v>
       </c>
       <c r="G7" t="n">
-        <v>0.768633155276535</v>
+        <v>0.620477168841821</v>
       </c>
       <c r="H7" t="n">
-        <v>0.732948425350415</v>
+        <v>0.754737535106032</v>
       </c>
       <c r="I7" t="n">
-        <v>0.712952434354826</v>
+        <v>0.739810708802606</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6282335145465</v>
+        <v>0.696830160275269</v>
       </c>
       <c r="K7" t="n">
-        <v>0.649007244283415</v>
+        <v>0.550584063687184</v>
       </c>
       <c r="L7" t="n">
-        <v>0.851313151457241</v>
+        <v>0.723263466239051</v>
       </c>
       <c r="M7" t="n">
-        <v>0.64796170003311</v>
+        <v>0.791664053032577</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.663301337003796</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.691048034934498</v>
+        <v>0.691438763376932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.722995679308689</v>
+        <v>0.67858845970434</v>
       </c>
       <c r="D8" t="n">
-        <v>0.76683697471266</v>
+        <v>0.649566333705771</v>
       </c>
       <c r="E8" t="n">
-        <v>0.694591801308621</v>
+        <v>0.666863760631278</v>
       </c>
       <c r="F8" t="n">
-        <v>0.767042786406479</v>
+        <v>0.767588288389665</v>
       </c>
       <c r="G8" t="n">
-        <v>0.620477168841821</v>
+        <v>0.56800325399601</v>
       </c>
       <c r="H8" t="n">
-        <v>0.754737535106032</v>
+        <v>0.782834042853143</v>
       </c>
       <c r="I8" t="n">
-        <v>0.739810708802606</v>
+        <v>0.662139020074036</v>
       </c>
       <c r="J8" t="n">
-        <v>0.696830160275269</v>
+        <v>0.62415407154462</v>
       </c>
       <c r="K8" t="n">
-        <v>0.550584063687184</v>
+        <v>0.598307433828746</v>
       </c>
       <c r="L8" t="n">
-        <v>0.791664053032577</v>
+        <v>0.809636950891532</v>
       </c>
       <c r="M8" t="n">
-        <v>0.663210767442378</v>
+        <v>0.839647773958159</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.654362878650455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.682197050651849</v>
+        <v>0.681889149102264</v>
       </c>
       <c r="C9" t="n">
-        <v>0.67858845970434</v>
+        <v>0.724314272431427</v>
       </c>
       <c r="D9" t="n">
-        <v>0.649566333705771</v>
+        <v>0.74804344232966</v>
       </c>
       <c r="E9" t="n">
-        <v>0.666863760631278</v>
+        <v>0.721006097532411</v>
       </c>
       <c r="F9" t="n">
-        <v>0.767588288389665</v>
+        <v>0.82158533790241</v>
       </c>
       <c r="G9" t="n">
-        <v>0.56800325399601</v>
+        <v>0.655850174362352</v>
       </c>
       <c r="H9" t="n">
-        <v>0.782834042853143</v>
+        <v>0.720464698516305</v>
       </c>
       <c r="I9" t="n">
-        <v>0.662139020074036</v>
+        <v>0.727314051621683</v>
       </c>
       <c r="J9" t="n">
-        <v>0.62415407154462</v>
+        <v>0.588476192495</v>
       </c>
       <c r="K9" t="n">
-        <v>0.598307433828746</v>
+        <v>0.66417147238743</v>
       </c>
       <c r="L9" t="n">
-        <v>0.839647773958159</v>
+        <v>0.479239298690242</v>
       </c>
       <c r="M9" t="n">
-        <v>0.654402124747029</v>
+        <v>0.764169437385325</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.648334728500467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.663796724065519</v>
+        <v>0.677425665101721</v>
       </c>
       <c r="C10" t="n">
         <v>0.684210526315789</v>
@@ -825,18 +855,21 @@
         <v>0.562548331362135</v>
       </c>
       <c r="L10" t="n">
+        <v>0.8633755152337</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.821278106814353</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.607037221768202</v>
+      <c r="N10" t="n">
+        <v>0.607054320066253</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.550397323295692</v>
+        <v>0.547600468201327</v>
       </c>
       <c r="C11" t="n">
         <v>0.553318077803204</v>
@@ -866,10 +899,13 @@
         <v>0.45836014933668</v>
       </c>
       <c r="L11" t="n">
+        <v>0.509700734558686</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.703998080455795</v>
       </c>
-      <c r="M11" t="n">
-        <v>0.523794988968065</v>
+      <c r="N11" t="n">
+        <v>0.523760344598141</v>
       </c>
     </row>
   </sheetData>
